--- a/biology/Botanique/Panaeolus/Panaeolus.xlsx
+++ b/biology/Botanique/Panaeolus/Panaeolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panaeolus (panéole) est un genre de champignons basidiomycètes de l'ordre des Agaricales. La phylogénétique le place dans la famille des Bolbitiaceae (anciennement dans les Panaeolaceae, famille devenue invalide).
 Le genre comprend plus d'une centaine d'espèces dont la plus connue est Paneolus semiovatus. L'espèce type est Panaeolus papilionaceus. Il s'agit de champignons à spores noires, frêles, souvent fugaces, assez proches des coprins, qui poussent le plus souvent sur des substrats riches en azote et notamment sur les bouses. Certains contiennent des substances psychotropes.
@@ -512,7 +524,9 @@
           <t>Principales espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Panaeolus acuminatus
 Panaeolus africanus
@@ -559,7 +573,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			P. semiovatus var. semiovatus
